--- a/ModelTraining/Models/Ensemble/GradientBoostRegressorBenchmark.xlsx
+++ b/ModelTraining/Models/Ensemble/GradientBoostRegressorBenchmark.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -479,13 +479,13 @@
         <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>10.74668986366529</v>
+        <v>10.85663951734018</v>
       </c>
       <c r="F2" t="n">
-        <v>2.716517511647997</v>
+        <v>2.071808136469829</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3804549607633158</v>
+        <v>0.1139981867348429</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>10.32706761837874</v>
+        <v>10.61493107010667</v>
       </c>
       <c r="F3" t="n">
-        <v>2.665505322248422</v>
+        <v>2.041915651538766</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4046461195032383</v>
+        <v>0.1337238230321848</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="n">
-        <v>10.03982860013748</v>
+        <v>10.36011549237856</v>
       </c>
       <c r="F4" t="n">
-        <v>2.632806838804385</v>
+        <v>2.010041405418407</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4212054053004647</v>
+        <v>0.1545191219416414</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>6.044270292561761</v>
+        <v>9.410291888777264</v>
       </c>
       <c r="F5" t="n">
-        <v>1.238965060972152</v>
+        <v>1.748210824260051</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6515487351855965</v>
+        <v>0.2320334792829425</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>5.775945474734395</v>
+        <v>9.262309077209016</v>
       </c>
       <c r="F6" t="n">
-        <v>1.155845744893572</v>
+        <v>1.711184950795076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.667017620200236</v>
+        <v>0.2441102401602038</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>5.460640517998243</v>
+        <v>9.09996974905933</v>
       </c>
       <c r="F7" t="n">
-        <v>1.093914014361002</v>
+        <v>1.655235964879394</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6851949030911368</v>
+        <v>0.257358625065601</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>5.909225367004213</v>
+        <v>9.380996129053294</v>
       </c>
       <c r="F8" t="n">
-        <v>1.185325768804733</v>
+        <v>1.724832870259751</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6593340546434645</v>
+        <v>0.2344242831956045</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="n">
-        <v>5.719449599898325</v>
+        <v>9.216857865241309</v>
       </c>
       <c r="F9" t="n">
-        <v>1.136111611783982</v>
+        <v>1.688579285666962</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6702745988081669</v>
+        <v>0.247819477825705</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>5.418741279757746</v>
+        <v>9.222927468215785</v>
       </c>
       <c r="F10" t="n">
-        <v>1.077344836810925</v>
+        <v>1.639054637095778</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6876103878151785</v>
+        <v>0.2473241423001407</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>8.190017345733972</v>
+        <v>10.26973513921639</v>
       </c>
       <c r="F11" t="n">
-        <v>2.153493726982505</v>
+        <v>1.972879621920606</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5278467433058223</v>
+        <v>0.1618949914874004</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>7.682396365197198</v>
+        <v>9.944924861996554</v>
       </c>
       <c r="F12" t="n">
-        <v>2.063604659714816</v>
+        <v>1.927590761758714</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5571110157742525</v>
+        <v>0.188402502778006</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>7.315480595279873</v>
+        <v>9.586077684113834</v>
       </c>
       <c r="F13" t="n">
-        <v>2.012551392283714</v>
+        <v>1.872705225493888</v>
       </c>
       <c r="G13" t="n">
-        <v>0.578263654210257</v>
+        <v>0.2176877387648291</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>3</v>
       </c>
       <c r="E14" t="n">
-        <v>5.899255220457301</v>
+        <v>9.33532629015053</v>
       </c>
       <c r="F14" t="n">
-        <v>1.187220260527788</v>
+        <v>1.724388503611734</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6599088320783737</v>
+        <v>0.2381513628333458</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>5.709209462067519</v>
+        <v>9.183411083889451</v>
       </c>
       <c r="F15" t="n">
-        <v>1.137319801822207</v>
+        <v>1.692241555634136</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6708649411996064</v>
+        <v>0.2505490433490235</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>5.383807951643012</v>
+        <v>9.082524938475112</v>
       </c>
       <c r="F16" t="n">
-        <v>1.075834455831739</v>
+        <v>1.639258138699777</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6896242888779314</v>
+        <v>0.2587822823386456</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>5.816295976957644</v>
+        <v>9.354009065871448</v>
       </c>
       <c r="F17" t="n">
-        <v>1.164337532788284</v>
+        <v>1.709156999418435</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6646914198724827</v>
+        <v>0.2366266761990403</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="E18" t="n">
-        <v>5.633442241916121</v>
+        <v>9.224596112794856</v>
       </c>
       <c r="F18" t="n">
-        <v>1.122841007515387</v>
+        <v>1.677541833946543</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6752329099394749</v>
+        <v>0.2471879655282776</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>10</v>
       </c>
       <c r="E19" t="n">
-        <v>5.354360756739072</v>
+        <v>9.388466476436088</v>
       </c>
       <c r="F19" t="n">
-        <v>1.067443593987517</v>
+        <v>1.637761978492</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6913219151939056</v>
+        <v>0.2338146340204335</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>6.688759217683896</v>
+        <v>9.766545463004377</v>
       </c>
       <c r="F20" t="n">
-        <v>1.579691449901591</v>
+        <v>1.858081106526503</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6143940464890885</v>
+        <v>0.2029599052508237</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>5</v>
       </c>
       <c r="E21" t="n">
-        <v>6.228096504114934</v>
+        <v>9.495259572937739</v>
       </c>
       <c r="F21" t="n">
-        <v>1.477940960096246</v>
+        <v>1.807212558111466</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6409511819953346</v>
+        <v>0.2250993333978476</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>5.869868973297931</v>
+        <v>9.186579270091167</v>
       </c>
       <c r="F22" t="n">
-        <v>1.409727222486319</v>
+        <v>1.742970294113842</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6616029447661257</v>
+        <v>0.2502904901645875</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>5.819258882837191</v>
+        <v>9.304297628528722</v>
       </c>
       <c r="F23" t="n">
-        <v>1.16303302700222</v>
+        <v>1.710139452625556</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6645206087983113</v>
+        <v>0.2406835875071229</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>5</v>
       </c>
       <c r="E24" t="n">
-        <v>5.619487753501775</v>
+        <v>9.185720605541281</v>
       </c>
       <c r="F24" t="n">
-        <v>1.122264225599001</v>
+        <v>1.681482706777054</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6760373840781979</v>
+        <v>0.2503605651032434</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>5.256877507428358</v>
+        <v>9.110261612119324</v>
       </c>
       <c r="F25" t="n">
-        <v>1.05962755066471</v>
+        <v>1.619785910127123</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6969418097182021</v>
+        <v>0.2565187142148754</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3</v>
       </c>
       <c r="E26" t="n">
-        <v>5.730317198007377</v>
+        <v>9.335672136843892</v>
       </c>
       <c r="F26" t="n">
-        <v>1.149964853303605</v>
+        <v>1.701513438402729</v>
       </c>
       <c r="G26" t="n">
-        <v>0.669648083426938</v>
+        <v>0.2381231385566771</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="E27" t="n">
-        <v>5.528546916046628</v>
+        <v>9.280201746505476</v>
       </c>
       <c r="F27" t="n">
-        <v>1.107530064867948</v>
+        <v>1.66286684599664</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6812801095521932</v>
+        <v>0.2426500334898528</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>5.28029342626867</v>
+        <v>9.533565202426065</v>
       </c>
       <c r="F28" t="n">
-        <v>1.068477284668684</v>
+        <v>1.635812450048423</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6955918855517169</v>
+        <v>0.2219732410991476</v>
       </c>
     </row>
   </sheetData>
